--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="age2012" sheetId="2" r:id="rId1"/>
@@ -16,8 +16,9 @@
     <sheet name="yesi_cd_mn" sheetId="21" r:id="rId7"/>
     <sheet name="yesi_summary" sheetId="22" r:id="rId8"/>
     <sheet name="youth_turnout" sheetId="23" r:id="rId9"/>
-    <sheet name="source" sheetId="18" r:id="rId10"/>
-    <sheet name="layout" sheetId="19" r:id="rId11"/>
+    <sheet name="breakdown_2016" sheetId="24" r:id="rId10"/>
+    <sheet name="source" sheetId="18" r:id="rId11"/>
+    <sheet name="layout" sheetId="19" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="527">
   <si>
     <t>US</t>
   </si>
@@ -1577,6 +1578,39 @@
   </si>
   <si>
     <t>midterm</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>clinton</t>
+  </si>
+  <si>
+    <t>nationwide</t>
+  </si>
+  <si>
+    <t>minnesota</t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>suburban</t>
+  </si>
+  <si>
+    <t>cities</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>minority</t>
+  </si>
+  <si>
+    <t>college</t>
   </si>
 </sst>
 </file>
@@ -2552,12 +2586,12 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="120">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3009,7 +3043,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10239,11 +10273,11 @@
       </c>
     </row>
     <row r="315" spans="1:7" s="8" customFormat="1">
-      <c r="A315" s="100"/>
-      <c r="B315" s="100"/>
-      <c r="C315" s="100"/>
-      <c r="D315" s="100"/>
-      <c r="E315" s="100"/>
+      <c r="A315" s="103"/>
+      <c r="B315" s="103"/>
+      <c r="C315" s="103"/>
+      <c r="D315" s="103"/>
+      <c r="E315" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10261,6 +10295,77 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="51" customFormat="1">
+      <c r="A1" s="51" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10412,7 +10517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B215"/>
   <sheetViews>
@@ -37587,7 +37692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -37608,216 +37713,216 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="101">
+      <c r="A2" s="100">
         <v>1986</v>
       </c>
       <c r="B2" t="s">
         <v>515</v>
       </c>
-      <c r="C2" s="103">
+      <c r="C2" s="102">
         <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="101">
+      <c r="A3" s="100">
         <v>1988</v>
       </c>
       <c r="B3" t="s">
         <v>514</v>
       </c>
-      <c r="C3" s="103">
+      <c r="C3" s="102">
         <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="101">
+      <c r="A4" s="100">
         <v>1990</v>
       </c>
       <c r="B4" t="s">
         <v>515</v>
       </c>
-      <c r="C4" s="103">
+      <c r="C4" s="102">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="101">
+      <c r="A5" s="100">
         <v>1992</v>
       </c>
       <c r="B5" t="s">
         <v>514</v>
       </c>
-      <c r="C5" s="103">
+      <c r="C5" s="102">
         <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="101">
+      <c r="A6" s="100">
         <v>1994</v>
       </c>
       <c r="B6" t="s">
         <v>515</v>
       </c>
-      <c r="C6" s="103">
+      <c r="C6" s="102">
         <v>0.21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="101">
+      <c r="A7" s="100">
         <v>1996</v>
       </c>
       <c r="B7" t="s">
         <v>514</v>
       </c>
-      <c r="C7" s="103">
+      <c r="C7" s="102">
         <v>0.33100000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="101">
+      <c r="A8" s="100">
         <v>1998</v>
       </c>
       <c r="B8" t="s">
         <v>515</v>
       </c>
-      <c r="C8" s="103">
+      <c r="C8" s="102">
         <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="101">
+      <c r="A9" s="100">
         <v>2000</v>
       </c>
       <c r="B9" t="s">
         <v>514</v>
       </c>
-      <c r="C9" s="103">
+      <c r="C9" s="102">
         <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="101">
+      <c r="A10" s="100">
         <v>2002</v>
       </c>
       <c r="B10" t="s">
         <v>515</v>
       </c>
-      <c r="C10" s="103">
+      <c r="C10" s="102">
         <v>0.182</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="101">
+      <c r="A11" s="100">
         <v>2004</v>
       </c>
       <c r="B11" t="s">
         <v>514</v>
       </c>
-      <c r="C11" s="103">
+      <c r="C11" s="102">
         <v>0.45</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="101">
+      <c r="A12" s="100">
         <v>2006</v>
       </c>
       <c r="B12" t="s">
         <v>515</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="102">
         <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="101">
+      <c r="A13" s="100">
         <v>2008</v>
       </c>
       <c r="B13" t="s">
         <v>514</v>
       </c>
-      <c r="C13" s="103">
+      <c r="C13" s="102">
         <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="101">
+      <c r="A14" s="100">
         <v>2010</v>
       </c>
       <c r="B14" t="s">
         <v>515</v>
       </c>
-      <c r="C14" s="103">
+      <c r="C14" s="102">
         <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="101">
+      <c r="A15" s="100">
         <v>2012</v>
       </c>
       <c r="B15" t="s">
         <v>514</v>
       </c>
-      <c r="C15" s="103">
+      <c r="C15" s="102">
         <v>0.40899999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="101">
+      <c r="A16" s="100">
         <v>2014</v>
       </c>
       <c r="B16" t="s">
         <v>515</v>
       </c>
-      <c r="C16" s="103">
+      <c r="C16" s="102">
         <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="101">
+      <c r="A17" s="100">
         <v>2016</v>
       </c>
       <c r="B17" t="s">
         <v>514</v>
       </c>
-      <c r="C17" s="103">
+      <c r="C17" s="102">
         <v>0.434</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
     </row>
   </sheetData>
   <sortState ref="A9:B24">

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="age2012" sheetId="2" r:id="rId1"/>
@@ -1571,9 +1571,6 @@
     <t>us_turnout</t>
   </si>
   <si>
-    <t>mn_turnout</t>
-  </si>
-  <si>
     <t>presidential</t>
   </si>
   <si>
@@ -1589,12 +1586,6 @@
     <t>clinton</t>
   </si>
   <si>
-    <t>nationwide</t>
-  </si>
-  <si>
-    <t>minnesota</t>
-  </si>
-  <si>
     <t>rural</t>
   </si>
   <si>
@@ -1607,10 +1598,19 @@
     <t>white</t>
   </si>
   <si>
-    <t>minority</t>
-  </si>
-  <si>
-    <t>college</t>
+    <t>other</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>latino</t>
+  </si>
+  <si>
+    <t>nonweighted</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2255,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="120">
+  <cellStyleXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2300,6 +2300,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2593,7 +2607,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="120">
+  <cellStyles count="134">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -2661,6 +2675,13 @@
     <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="30" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="31" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="32" builtinId="17" customBuiltin="1"/>
@@ -2704,6 +2725,13 @@
     <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="35" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
@@ -3043,7 +3071,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10295,67 +10323,129 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" s="51" customFormat="1">
+    <row r="1" spans="1:4" s="51" customFormat="1">
       <c r="A1" s="51" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>517</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="51" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B2">
+        <v>0.37</v>
+      </c>
+      <c r="C2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>0.53</v>
+      </c>
+      <c r="C3">
+        <v>0.37</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.41</v>
+      </c>
+      <c r="D4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>0.26</v>
+      </c>
+      <c r="C5">
+        <v>0.64</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6">
+        <v>0.48</v>
+      </c>
+      <c r="C6">
+        <v>0.43</v>
+      </c>
+      <c r="D6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7">
+        <v>0.09</v>
+      </c>
+      <c r="C7">
+        <v>0.83</v>
+      </c>
+      <c r="D7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>526</v>
+      <c r="B8">
+        <v>0.24</v>
+      </c>
+      <c r="C8">
+        <v>0.7</v>
+      </c>
+      <c r="D8">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -37692,8 +37782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -37709,7 +37799,7 @@
         <v>512</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -37717,10 +37807,13 @@
         <v>1986</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C2" s="102">
         <v>0.20499999999999999</v>
+      </c>
+      <c r="D2" s="53">
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -37728,10 +37821,13 @@
         <v>1988</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C3" s="102">
         <v>0.35699999999999998</v>
+      </c>
+      <c r="D3" s="53">
+        <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -37739,10 +37835,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C4" s="102">
         <v>0.2</v>
+      </c>
+      <c r="D4" s="53">
+        <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -37750,10 +37849,13 @@
         <v>1992</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C5" s="102">
         <v>0.42699999999999999</v>
+      </c>
+      <c r="D5" s="53">
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -37761,10 +37863,13 @@
         <v>1994</v>
       </c>
       <c r="B6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C6" s="102">
         <v>0.21</v>
+      </c>
+      <c r="D6" s="53">
+        <v>0.26200000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -37772,10 +37877,13 @@
         <v>1996</v>
       </c>
       <c r="B7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C7" s="102">
         <v>0.33100000000000002</v>
+      </c>
+      <c r="D7" s="53">
+        <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -37783,10 +37891,13 @@
         <v>1998</v>
       </c>
       <c r="B8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C8" s="102">
         <v>0.17699999999999999</v>
+      </c>
+      <c r="D8" s="53">
+        <v>0.223</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -37794,10 +37905,13 @@
         <v>2000</v>
       </c>
       <c r="B9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C9" s="102">
         <v>0.34499999999999997</v>
+      </c>
+      <c r="D9" s="53">
+        <v>0.40300000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -37805,10 +37919,13 @@
         <v>2002</v>
       </c>
       <c r="B10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C10" s="102">
         <v>0.182</v>
+      </c>
+      <c r="D10" s="53">
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -37816,10 +37933,13 @@
         <v>2004</v>
       </c>
       <c r="B11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C11" s="102">
         <v>0.45</v>
+      </c>
+      <c r="D11" s="53">
+        <v>0.49</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -37827,10 +37947,13 @@
         <v>2006</v>
       </c>
       <c r="B12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C12" s="102">
         <v>0.20300000000000001</v>
+      </c>
+      <c r="D12" s="53">
+        <v>0.255</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -37838,10 +37961,13 @@
         <v>2008</v>
       </c>
       <c r="B13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C13" s="102">
         <v>0.48399999999999999</v>
+      </c>
+      <c r="D13" s="53">
+        <v>0.51100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -37849,10 +37975,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C14" s="102">
         <v>0.20300000000000001</v>
+      </c>
+      <c r="D14" s="53">
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -37860,10 +37989,13 @@
         <v>2012</v>
       </c>
       <c r="B15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C15" s="102">
         <v>0.40899999999999997</v>
+      </c>
+      <c r="D15" s="53">
+        <v>0.45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -37871,10 +38003,13 @@
         <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C16" s="102">
         <v>0.16300000000000001</v>
+      </c>
+      <c r="D16" s="53">
+        <v>0.19900000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -37882,10 +38017,13 @@
         <v>2016</v>
       </c>
       <c r="B17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C17" s="102">
         <v>0.434</v>
+      </c>
+      <c r="D17" s="53">
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -37925,8 +38063,8 @@
       <c r="U25" s="101"/>
     </row>
   </sheetData>
-  <sortState ref="A9:B24">
-    <sortCondition ref="A27"/>
+  <sortState ref="A2:D17">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="536">
   <si>
     <t>US</t>
   </si>
@@ -1611,6 +1611,33 @@
   </si>
   <si>
     <t>nonweighted</t>
+  </si>
+  <si>
+    <t>mn_turnout</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Voters 18-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated Total Population 18-29 </t>
+  </si>
+  <si>
+    <t>Population Estimate Source</t>
+  </si>
+  <si>
+    <t>American Community Survey 3 Year Estimate</t>
+  </si>
+  <si>
+    <t>2010 Decennial Census</t>
+  </si>
+  <si>
+    <t>Census Annual Population Estimate</t>
+  </si>
+  <si>
+    <t>turnout</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2282,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="134">
+  <cellStyleXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2300,6 +2327,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2607,7 +2638,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="134">
+  <cellStyles count="138">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -2682,6 +2713,8 @@
     <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="30" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="31" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="32" builtinId="17" customBuiltin="1"/>
@@ -2732,6 +2765,8 @@
     <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="35" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
@@ -36031,11 +36066,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="42" max="42" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:58">
       <c r="A1" t="s">
@@ -37780,15 +37818,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" s="51" customFormat="1">
+    <row r="1" spans="1:5" s="51" customFormat="1">
       <c r="A1" s="51" t="s">
         <v>510</v>
       </c>
@@ -37801,8 +37839,11 @@
       <c r="D1" s="51" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="51" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="100">
         <v>1986</v>
       </c>
@@ -37816,7 +37857,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="100">
         <v>1988</v>
       </c>
@@ -37830,7 +37871,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="100">
         <v>1990</v>
       </c>
@@ -37844,7 +37885,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="100">
         <v>1992</v>
       </c>
@@ -37858,7 +37899,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="100">
         <v>1994</v>
       </c>
@@ -37872,7 +37913,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="100">
         <v>1996</v>
       </c>
@@ -37886,7 +37927,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="100">
         <v>1998</v>
       </c>
@@ -37900,7 +37941,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="100">
         <v>2000</v>
       </c>
@@ -37914,7 +37955,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="100">
         <v>2002</v>
       </c>
@@ -37928,7 +37969,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="100">
         <v>2004</v>
       </c>
@@ -37942,7 +37983,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="100">
         <v>2006</v>
       </c>
@@ -37955,8 +37996,12 @@
       <c r="D12" s="53">
         <v>0.255</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <f>B24/C24</f>
+        <v>0.33116585120511388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="100">
         <v>2008</v>
       </c>
@@ -37969,8 +38014,12 @@
       <c r="D13" s="53">
         <v>0.51100000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <f>B25/C25</f>
+        <v>0.63778866665504153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="100">
         <v>2010</v>
       </c>
@@ -37983,8 +38032,12 @@
       <c r="D14" s="53">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <f>B26/C26</f>
+        <v>0.27441018406940154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="100">
         <v>2012</v>
       </c>
@@ -37997,8 +38050,12 @@
       <c r="D15" s="53">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <f>B27/C27</f>
+        <v>0.57833733013589128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="100">
         <v>2014</v>
       </c>
@@ -38010,6 +38067,10 @@
       </c>
       <c r="D16" s="53">
         <v>0.19900000000000001</v>
+      </c>
+      <c r="E16">
+        <f>B28/C28</f>
+        <v>0.2179739962851836</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -38025,8 +38086,41 @@
       <c r="D17" s="53">
         <v>0.46100000000000002</v>
       </c>
+      <c r="E17">
+        <f>B29/C29</f>
+        <v>0.53676559036310212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B22" t="s">
+        <v>529</v>
+      </c>
+      <c r="C22" t="s">
+        <v>530</v>
+      </c>
+      <c r="D22" t="s">
+        <v>531</v>
+      </c>
+      <c r="E22" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="24" spans="1:21">
+      <c r="A24">
+        <v>2006</v>
+      </c>
+      <c r="B24">
+        <v>285765</v>
+      </c>
+      <c r="C24">
+        <v>862906</v>
+      </c>
+      <c r="D24" t="s">
+        <v>532</v>
+      </c>
       <c r="F24" s="100"/>
       <c r="G24" s="100"/>
       <c r="H24" s="100"/>
@@ -38045,6 +38139,18 @@
       <c r="U24" s="100"/>
     </row>
     <row r="25" spans="1:21">
+      <c r="A25">
+        <v>2008</v>
+      </c>
+      <c r="B25">
+        <v>548629</v>
+      </c>
+      <c r="C25">
+        <v>860205</v>
+      </c>
+      <c r="D25" t="s">
+        <v>532</v>
+      </c>
       <c r="F25" s="101"/>
       <c r="G25" s="101"/>
       <c r="H25" s="101"/>
@@ -38062,6 +38168,62 @@
       <c r="T25" s="101"/>
       <c r="U25" s="101"/>
     </row>
+    <row r="26" spans="1:21">
+      <c r="A26">
+        <v>2010</v>
+      </c>
+      <c r="B26">
+        <v>240242</v>
+      </c>
+      <c r="C26">
+        <v>875485</v>
+      </c>
+      <c r="D26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+      <c r="B27">
+        <v>506450</v>
+      </c>
+      <c r="C27">
+        <v>875700</v>
+      </c>
+      <c r="D27" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28">
+        <v>2014</v>
+      </c>
+      <c r="B28">
+        <v>190700</v>
+      </c>
+      <c r="C28">
+        <v>874875</v>
+      </c>
+      <c r="D28" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29">
+        <v>2016</v>
+      </c>
+      <c r="B29">
+        <v>468540</v>
+      </c>
+      <c r="C29">
+        <v>872895</v>
+      </c>
+      <c r="D29" t="s">
+        <v>534</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D17">
     <sortCondition ref="A1"/>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="age2012" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="549">
   <si>
     <t>US</t>
   </si>
@@ -572,9 +572,6 @@
     <t>yesi_cd_mn</t>
   </si>
   <si>
-    <t>Source: U.S. Census Bureau Voting in America Report, CIRCLE Youth Electoral Significance Index</t>
-  </si>
-  <si>
     <t>CIRCLE Youth Electoral Significance Index</t>
   </si>
   <si>
@@ -1638,6 +1635,48 @@
   </si>
   <si>
     <t>turnout</t>
+  </si>
+  <si>
+    <t>breakdown_2016</t>
+  </si>
+  <si>
+    <t>CIRCLE, Edison Research</t>
+  </si>
+  <si>
+    <t>Breakdown of 2016 youth vote by category</t>
+  </si>
+  <si>
+    <t>Election year</t>
+  </si>
+  <si>
+    <t>Type of election</t>
+  </si>
+  <si>
+    <t>Nationwide youth voter turnout as weighted by U.S. Elections Project</t>
+  </si>
+  <si>
+    <t>Nationwide youth voter turnout as reported by U.S. Census Bureau</t>
+  </si>
+  <si>
+    <t>Minnesota youth voter turnout as estimated by Minnesota Secretary of State</t>
+  </si>
+  <si>
+    <t>U.S. Elections Project, U.S. Census Bureau, Minnesota Secretary of State</t>
+  </si>
+  <si>
+    <t>Source: U.S. Census Bureau Voting in America Report, CIRCLE Youth Electoral Significance Index, Edison Research, U.S. Elections Project</t>
+  </si>
+  <si>
+    <t>Category of youth voter</t>
+  </si>
+  <si>
+    <t>Percentage of youth vote for Donald Trump in 2016</t>
+  </si>
+  <si>
+    <t>Percentage of youth vote for Hillary Clinton in 2016</t>
+  </si>
+  <si>
+    <t>Percentage of youth vote for other candidates in 2016</t>
   </si>
 </sst>
 </file>
@@ -2282,7 +2321,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="138">
+  <cellStyleXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2327,6 +2366,32 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2638,7 +2703,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="138">
+  <cellStyles count="164">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -2715,6 +2780,19 @@
     <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="30" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="31" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="32" builtinId="17" customBuiltin="1"/>
@@ -2767,6 +2845,19 @@
     <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="35" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
@@ -3106,7 +3197,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10368,21 +10459,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="51" customFormat="1">
       <c r="A1" s="51" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>515</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>516</v>
       </c>
-      <c r="C1" s="51" t="s">
-        <v>517</v>
-      </c>
       <c r="D1" s="51" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B2">
         <v>0.37</v>
@@ -10396,7 +10487,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B3">
         <v>0.53</v>
@@ -10410,7 +10501,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -10424,7 +10515,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B5">
         <v>0.26</v>
@@ -10438,7 +10529,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B6">
         <v>0.48</v>
@@ -10452,7 +10543,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B7">
         <v>0.09</v>
@@ -10466,7 +10557,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B8">
         <v>0.24</v>
@@ -10491,21 +10582,21 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -10592,10 +10683,10 @@
         <v>178</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -10603,32 +10694,43 @@
         <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14" t="s">
         <v>489</v>
       </c>
-      <c r="B14" t="s">
-        <v>490</v>
-      </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B15" t="s">
         <v>508</v>
       </c>
-      <c r="B15" t="s">
-        <v>509</v>
-      </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>535</v>
+      </c>
+      <c r="B16" t="s">
+        <v>537</v>
+      </c>
+      <c r="C16" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -10644,10 +10746,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B215"/>
+  <dimension ref="A2:B228"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10951,552 +11053,552 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="157" spans="1:1">
@@ -11506,292 +11608,374 @@
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
-        <v>241</v>
+    <row r="217" spans="1:2">
+      <c r="A217" s="51" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>509</v>
+      </c>
+      <c r="B218" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>510</v>
+      </c>
+      <c r="B219" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>511</v>
+      </c>
+      <c r="B220" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>525</v>
+      </c>
+      <c r="B221" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>526</v>
+      </c>
+      <c r="B222" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="51" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>514</v>
+      </c>
+      <c r="B225" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>516</v>
+      </c>
+      <c r="B226" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>515</v>
+      </c>
+      <c r="B227" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>521</v>
+      </c>
+      <c r="B228" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -22386,347 +22570,347 @@
   <sheetData>
     <row r="1" spans="1:121">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:121" ht="168">
       <c r="A2" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="C2" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="D2" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="E2" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="F2" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="H2" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="I2" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="J2" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="K2" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="L2" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="M2" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="N2" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="O2" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="P2" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="Q2" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="R2" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="R2" s="61" t="s">
+      <c r="S2" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="S2" s="60" t="s">
+      <c r="T2" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="T2" s="60" t="s">
+      <c r="U2" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="V2" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="U2" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="V2" s="58" t="s">
+      <c r="W2" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="W2" s="60" t="s">
+      <c r="X2" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="X2" s="60" t="s">
+      <c r="Y2" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="Y2" s="58" t="s">
+      <c r="Z2" s="58" t="s">
         <v>307</v>
       </c>
-      <c r="Z2" s="58" t="s">
+      <c r="AA2" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="AA2" s="60" t="s">
+      <c r="AB2" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="AB2" s="60" t="s">
+      <c r="AC2" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="AC2" s="60" t="s">
+      <c r="AD2" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="AD2" s="60" t="s">
+      <c r="AE2" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="AE2" s="58" t="s">
+      <c r="AF2" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="AF2" s="63" t="s">
+      <c r="AG2" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="AG2" s="63" t="s">
+      <c r="AH2" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="AH2" s="63" t="s">
+      <c r="AI2" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="AI2" s="63" t="s">
+      <c r="AJ2" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="AJ2" s="63" t="s">
+      <c r="AK2" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="AK2" s="63" t="s">
+      <c r="AL2" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="AL2" s="63" t="s">
+      <c r="AM2" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="AM2" s="63" t="s">
+      <c r="AN2" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="AN2" s="63" t="s">
+      <c r="AO2" s="63" t="s">
         <v>322</v>
       </c>
-      <c r="AO2" s="63" t="s">
+      <c r="AP2" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="AP2" s="63" t="s">
+      <c r="AQ2" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="AQ2" s="63" t="s">
+      <c r="AR2" s="64" t="s">
         <v>325</v>
       </c>
-      <c r="AR2" s="64" t="s">
+      <c r="AS2" s="64" t="s">
         <v>326</v>
       </c>
-      <c r="AS2" s="64" t="s">
+      <c r="AT2" s="64" t="s">
         <v>327</v>
       </c>
-      <c r="AT2" s="64" t="s">
+      <c r="AU2" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="AU2" s="60" t="s">
+      <c r="AV2" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="AV2" s="60" t="s">
+      <c r="AW2" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="AW2" s="65" t="s">
+      <c r="AX2" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="AX2" s="65" t="s">
+      <c r="AY2" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="AY2" s="65" t="s">
+      <c r="AZ2" s="65" t="s">
         <v>333</v>
       </c>
-      <c r="AZ2" s="65" t="s">
+      <c r="BA2" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="BA2" s="58" t="s">
+      <c r="BB2" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="BB2" s="58" t="s">
+      <c r="BC2" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="BC2" s="58" t="s">
+      <c r="BD2" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="BD2" s="58" t="s">
+      <c r="BE2" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="BE2" s="58" t="s">
+      <c r="BF2" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="BF2" s="58" t="s">
+      <c r="BG2" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="BG2" s="58" t="s">
+      <c r="BH2" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="BH2" s="58" t="s">
+      <c r="BI2" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="BI2" s="58" t="s">
+      <c r="BJ2" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="BJ2" s="58" t="s">
+      <c r="BK2" s="58" t="s">
         <v>344</v>
       </c>
-      <c r="BK2" s="58" t="s">
+      <c r="BL2" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="BL2" s="58" t="s">
+      <c r="BM2" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="BM2" s="58" t="s">
+      <c r="BN2" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="BN2" s="58" t="s">
+      <c r="BO2" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="BO2" s="61" t="s">
+      <c r="BP2" s="60" t="s">
         <v>349</v>
       </c>
-      <c r="BP2" s="60" t="s">
+      <c r="BQ2" s="60" t="s">
         <v>350</v>
       </c>
-      <c r="BQ2" s="60" t="s">
+      <c r="BR2" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="BR2" s="58" t="s">
+      <c r="BS2" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="BS2" s="58" t="s">
+      <c r="BT2" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="BT2" s="58" t="s">
+      <c r="BU2" s="58" t="s">
         <v>354</v>
       </c>
-      <c r="BU2" s="58" t="s">
+      <c r="BV2" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="BV2" s="58" t="s">
+      <c r="BW2" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="BW2" s="63" t="s">
+      <c r="BX2" s="63" t="s">
         <v>357</v>
       </c>
-      <c r="BX2" s="63" t="s">
+      <c r="BY2" s="63" t="s">
         <v>358</v>
       </c>
-      <c r="BY2" s="63" t="s">
+      <c r="BZ2" s="63" t="s">
         <v>359</v>
       </c>
-      <c r="BZ2" s="63" t="s">
+      <c r="CA2" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="CA2" s="63" t="s">
+      <c r="CB2" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="CB2" s="63" t="s">
+      <c r="CC2" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="CC2" s="63" t="s">
+      <c r="CD2" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="CD2" s="63" t="s">
+      <c r="CE2" s="63" t="s">
         <v>364</v>
       </c>
-      <c r="CE2" s="63" t="s">
+      <c r="CF2" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="CF2" s="63" t="s">
+      <c r="CG2" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="CG2" s="63" t="s">
+      <c r="CH2" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="CH2" s="63" t="s">
+      <c r="CI2" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="CI2" s="63" t="s">
+      <c r="CJ2" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="CJ2" s="63" t="s">
+      <c r="CK2" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="CK2" s="63" t="s">
+      <c r="CL2" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="CL2" s="63" t="s">
+      <c r="CM2" s="63" t="s">
         <v>372</v>
       </c>
-      <c r="CM2" s="63" t="s">
+      <c r="CN2" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="CN2" s="63" t="s">
+      <c r="CO2" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="CO2" s="63" t="s">
+      <c r="CP2" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="CP2" s="63" t="s">
+      <c r="CQ2" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="CQ2" s="63" t="s">
+      <c r="CR2" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="CR2" s="58" t="s">
+      <c r="CS2" s="58" t="s">
         <v>378</v>
       </c>
-      <c r="CS2" s="58" t="s">
+      <c r="CT2" s="58" t="s">
         <v>379</v>
       </c>
-      <c r="CT2" s="58" t="s">
+      <c r="CU2" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="CU2" s="63" t="s">
+      <c r="CV2" s="61" t="s">
         <v>381</v>
       </c>
-      <c r="CV2" s="61" t="s">
+      <c r="CW2" s="58" t="s">
         <v>382</v>
       </c>
-      <c r="CW2" s="58" t="s">
+      <c r="CX2" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="CX2" s="58" t="s">
+      <c r="CY2" s="67" t="s">
         <v>384</v>
       </c>
-      <c r="CY2" s="67" t="s">
+      <c r="CZ2" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="CZ2" s="58" t="s">
+      <c r="DA2" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="DA2" s="60" t="s">
+      <c r="DB2" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="DB2" s="58" t="s">
+      <c r="DC2" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="DC2" s="68" t="s">
+      <c r="DD2" s="58" t="s">
         <v>389</v>
       </c>
-      <c r="DD2" s="58" t="s">
+      <c r="DE2" s="58" t="s">
         <v>390</v>
       </c>
-      <c r="DE2" s="58" t="s">
+      <c r="DF2" s="60" t="s">
         <v>391</v>
-      </c>
-      <c r="DF2" s="60" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:121">
       <c r="A3" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="69" t="s">
         <v>393</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>394</v>
       </c>
       <c r="C3" s="70">
         <v>27</v>
@@ -23055,380 +23239,380 @@
     </row>
     <row r="7" spans="1:121">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:121" ht="168">
       <c r="A8" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="C8" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="D8" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="E8" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="F8" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="G8" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="H8" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="I8" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="J8" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="K8" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="L8" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="M8" s="57" t="s">
         <v>398</v>
       </c>
-      <c r="L8" s="57" t="s">
+      <c r="N8" s="83" t="s">
         <v>292</v>
       </c>
-      <c r="M8" s="57" t="s">
+      <c r="O8" s="84" t="s">
+        <v>293</v>
+      </c>
+      <c r="P8" s="85" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="R8" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="S8" s="85" t="s">
+        <v>297</v>
+      </c>
+      <c r="T8" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="U8" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="V8" s="84" t="s">
         <v>399</v>
       </c>
-      <c r="N8" s="83" t="s">
-        <v>293</v>
-      </c>
-      <c r="O8" s="84" t="s">
-        <v>294</v>
-      </c>
-      <c r="P8" s="85" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q8" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="R8" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="S8" s="85" t="s">
-        <v>298</v>
-      </c>
-      <c r="T8" s="57" t="s">
-        <v>299</v>
-      </c>
-      <c r="U8" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="V8" s="84" t="s">
+      <c r="W8" s="85" t="s">
+        <v>301</v>
+      </c>
+      <c r="X8" s="85" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y8" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z8" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA8" s="85" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB8" s="85" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC8" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD8" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE8" s="85" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF8" s="85" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG8" s="85" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH8" s="85" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI8" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ8" s="86" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK8" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="AL8" s="86" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM8" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="AN8" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="AO8" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="AP8" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="AQ8" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="AR8" s="86" t="s">
+        <v>321</v>
+      </c>
+      <c r="AS8" s="86" t="s">
+        <v>322</v>
+      </c>
+      <c r="AT8" s="86" t="s">
+        <v>323</v>
+      </c>
+      <c r="AU8" s="86" t="s">
+        <v>324</v>
+      </c>
+      <c r="AV8" s="87" t="s">
         <v>400</v>
       </c>
-      <c r="W8" s="85" t="s">
-        <v>302</v>
-      </c>
-      <c r="X8" s="85" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y8" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z8" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA8" s="85" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB8" s="85" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC8" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD8" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="AE8" s="85" t="s">
-        <v>309</v>
-      </c>
-      <c r="AF8" s="85" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG8" s="85" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH8" s="85" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI8" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="AJ8" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="AK8" s="86" t="s">
-        <v>315</v>
-      </c>
-      <c r="AL8" s="86" t="s">
-        <v>316</v>
-      </c>
-      <c r="AM8" s="86" t="s">
-        <v>317</v>
-      </c>
-      <c r="AN8" s="86" t="s">
-        <v>318</v>
-      </c>
-      <c r="AO8" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="AP8" s="86" t="s">
-        <v>320</v>
-      </c>
-      <c r="AQ8" s="86" t="s">
-        <v>321</v>
-      </c>
-      <c r="AR8" s="86" t="s">
-        <v>322</v>
-      </c>
-      <c r="AS8" s="86" t="s">
-        <v>323</v>
-      </c>
-      <c r="AT8" s="86" t="s">
-        <v>324</v>
-      </c>
-      <c r="AU8" s="86" t="s">
-        <v>325</v>
-      </c>
-      <c r="AV8" s="87" t="s">
+      <c r="AW8" s="87" t="s">
         <v>401</v>
       </c>
-      <c r="AW8" s="87" t="s">
+      <c r="AX8" s="87" t="s">
         <v>402</v>
       </c>
-      <c r="AX8" s="87" t="s">
+      <c r="AY8" s="85" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ8" s="85" t="s">
+        <v>329</v>
+      </c>
+      <c r="BA8" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="BB8" s="88" t="s">
+        <v>331</v>
+      </c>
+      <c r="BC8" s="88" t="s">
+        <v>332</v>
+      </c>
+      <c r="BD8" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="BE8" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="BF8" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="BG8" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="BH8" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="BI8" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="BJ8" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="BK8" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="BL8" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="BM8" s="57" t="s">
+        <v>342</v>
+      </c>
+      <c r="BN8" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="BO8" s="57" t="s">
+        <v>344</v>
+      </c>
+      <c r="BP8" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ8" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="BR8" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="BS8" s="84" t="s">
         <v>403</v>
       </c>
-      <c r="AY8" s="85" t="s">
-        <v>329</v>
-      </c>
-      <c r="AZ8" s="85" t="s">
-        <v>330</v>
-      </c>
-      <c r="BA8" s="88" t="s">
-        <v>331</v>
-      </c>
-      <c r="BB8" s="88" t="s">
-        <v>332</v>
-      </c>
-      <c r="BC8" s="88" t="s">
-        <v>333</v>
-      </c>
-      <c r="BD8" s="88" t="s">
-        <v>334</v>
-      </c>
-      <c r="BE8" s="57" t="s">
-        <v>335</v>
-      </c>
-      <c r="BF8" s="57" t="s">
-        <v>336</v>
-      </c>
-      <c r="BG8" s="57" t="s">
-        <v>337</v>
-      </c>
-      <c r="BH8" s="57" t="s">
-        <v>338</v>
-      </c>
-      <c r="BI8" s="57" t="s">
-        <v>339</v>
-      </c>
-      <c r="BJ8" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="BK8" s="57" t="s">
-        <v>341</v>
-      </c>
-      <c r="BL8" s="57" t="s">
-        <v>342</v>
-      </c>
-      <c r="BM8" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="BN8" s="57" t="s">
-        <v>344</v>
-      </c>
-      <c r="BO8" s="57" t="s">
-        <v>345</v>
-      </c>
-      <c r="BP8" s="57" t="s">
-        <v>346</v>
-      </c>
-      <c r="BQ8" s="57" t="s">
-        <v>347</v>
-      </c>
-      <c r="BR8" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="BS8" s="84" t="s">
+      <c r="BT8" s="85" t="s">
+        <v>349</v>
+      </c>
+      <c r="BU8" s="85" t="s">
+        <v>350</v>
+      </c>
+      <c r="BV8" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="BW8" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="BX8" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="BY8" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="BZ8" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="CA8" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="CB8" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="CC8" s="86" t="s">
+        <v>358</v>
+      </c>
+      <c r="CD8" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="CE8" s="62" t="s">
+        <v>360</v>
+      </c>
+      <c r="CF8" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="CG8" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="CH8" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="CI8" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="CJ8" s="62" t="s">
+        <v>365</v>
+      </c>
+      <c r="CK8" s="62" t="s">
+        <v>366</v>
+      </c>
+      <c r="CL8" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="CM8" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="CN8" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="CO8" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="CP8" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="CQ8" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="CR8" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="CS8" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="CT8" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="CU8" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="CV8" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="CW8" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="CX8" s="57" t="s">
+        <v>379</v>
+      </c>
+      <c r="CY8" s="62" t="s">
+        <v>380</v>
+      </c>
+      <c r="CZ8" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="BT8" s="85" t="s">
-        <v>350</v>
-      </c>
-      <c r="BU8" s="85" t="s">
-        <v>351</v>
-      </c>
-      <c r="BV8" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="BW8" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="BX8" s="57" t="s">
-        <v>354</v>
-      </c>
-      <c r="BY8" s="57" t="s">
-        <v>355</v>
-      </c>
-      <c r="BZ8" s="57" t="s">
-        <v>356</v>
-      </c>
-      <c r="CA8" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="CB8" s="86" t="s">
-        <v>358</v>
-      </c>
-      <c r="CC8" s="86" t="s">
-        <v>359</v>
-      </c>
-      <c r="CD8" s="62" t="s">
-        <v>360</v>
-      </c>
-      <c r="CE8" s="62" t="s">
-        <v>361</v>
-      </c>
-      <c r="CF8" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="CG8" s="62" t="s">
-        <v>363</v>
-      </c>
-      <c r="CH8" s="62" t="s">
-        <v>364</v>
-      </c>
-      <c r="CI8" s="62" t="s">
-        <v>365</v>
-      </c>
-      <c r="CJ8" s="62" t="s">
-        <v>366</v>
-      </c>
-      <c r="CK8" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="CL8" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="CM8" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="CN8" s="62" t="s">
-        <v>370</v>
-      </c>
-      <c r="CO8" s="62" t="s">
-        <v>371</v>
-      </c>
-      <c r="CP8" s="62" t="s">
-        <v>372</v>
-      </c>
-      <c r="CQ8" s="62" t="s">
-        <v>373</v>
-      </c>
-      <c r="CR8" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="CS8" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="CT8" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="CU8" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="CV8" s="57" t="s">
-        <v>378</v>
-      </c>
-      <c r="CW8" s="57" t="s">
-        <v>379</v>
-      </c>
-      <c r="CX8" s="57" t="s">
-        <v>380</v>
-      </c>
-      <c r="CY8" s="62" t="s">
-        <v>381</v>
-      </c>
-      <c r="CZ8" s="84" t="s">
+      <c r="DA8" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="DB8" s="57" t="s">
+        <v>383</v>
+      </c>
+      <c r="DC8" s="66" t="s">
+        <v>384</v>
+      </c>
+      <c r="DD8" s="57" t="s">
+        <v>385</v>
+      </c>
+      <c r="DE8" s="89" t="s">
+        <v>386</v>
+      </c>
+      <c r="DF8" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="DA8" s="57" t="s">
-        <v>383</v>
-      </c>
-      <c r="DB8" s="57" t="s">
-        <v>384</v>
-      </c>
-      <c r="DC8" s="66" t="s">
-        <v>385</v>
-      </c>
-      <c r="DD8" s="57" t="s">
-        <v>386</v>
-      </c>
-      <c r="DE8" s="89" t="s">
+      <c r="DG8" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="DF8" s="57" t="s">
+      <c r="DH8" s="57" t="s">
         <v>406</v>
       </c>
-      <c r="DG8" s="57" t="s">
-        <v>388</v>
-      </c>
-      <c r="DH8" s="57" t="s">
+      <c r="DI8" s="90" t="s">
         <v>407</v>
       </c>
-      <c r="DI8" s="90" t="s">
+      <c r="DJ8" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="DJ8" s="57" t="s">
+      <c r="DK8" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="DL8" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="DK8" s="57" t="s">
+      <c r="DM8" s="57" t="s">
         <v>390</v>
       </c>
-      <c r="DL8" s="57" t="s">
+      <c r="DN8" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="DM8" s="57" t="s">
+      <c r="DO8" s="57" t="s">
+        <v>411</v>
+      </c>
+      <c r="DP8" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="DQ8" s="85" t="s">
         <v>391</v>
-      </c>
-      <c r="DN8" s="57" t="s">
-        <v>411</v>
-      </c>
-      <c r="DO8" s="57" t="s">
-        <v>412</v>
-      </c>
-      <c r="DP8" s="57" t="s">
-        <v>413</v>
-      </c>
-      <c r="DQ8" s="85" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:121">
       <c r="A9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B9" t="s">
         <v>393</v>
-      </c>
-      <c r="B9" t="s">
-        <v>394</v>
       </c>
       <c r="C9" s="52">
         <v>27</v>
@@ -23789,10 +23973,10 @@
     </row>
     <row r="10" spans="1:121">
       <c r="A10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10" t="s">
         <v>414</v>
-      </c>
-      <c r="B10" t="s">
-        <v>415</v>
       </c>
       <c r="C10" s="52">
         <v>23</v>
@@ -24153,10 +24337,10 @@
     </row>
     <row r="11" spans="1:121">
       <c r="A11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" t="s">
         <v>416</v>
-      </c>
-      <c r="B11" t="s">
-        <v>417</v>
       </c>
       <c r="C11" s="52">
         <v>8</v>
@@ -24509,10 +24693,10 @@
     </row>
     <row r="12" spans="1:121">
       <c r="A12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" t="s">
         <v>418</v>
-      </c>
-      <c r="B12" t="s">
-        <v>419</v>
       </c>
       <c r="C12" s="52">
         <v>9</v>
@@ -24873,10 +25057,10 @@
     </row>
     <row r="13" spans="1:121">
       <c r="A13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" t="s">
         <v>420</v>
-      </c>
-      <c r="B13" t="s">
-        <v>421</v>
       </c>
       <c r="C13" s="52">
         <v>39</v>
@@ -25237,10 +25421,10 @@
     </row>
     <row r="14" spans="1:121">
       <c r="A14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14" t="s">
         <v>422</v>
-      </c>
-      <c r="B14" t="s">
-        <v>423</v>
       </c>
       <c r="C14" s="52">
         <v>26</v>
@@ -25601,10 +25785,10 @@
     </row>
     <row r="15" spans="1:121">
       <c r="A15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" t="s">
         <v>424</v>
-      </c>
-      <c r="B15" t="s">
-        <v>425</v>
       </c>
       <c r="C15" s="52">
         <v>2</v>
@@ -25957,10 +26141,10 @@
     </row>
     <row r="16" spans="1:121">
       <c r="A16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B16" t="s">
         <v>426</v>
-      </c>
-      <c r="B16" t="s">
-        <v>427</v>
       </c>
       <c r="C16" s="52">
         <v>17</v>
@@ -26313,10 +26497,10 @@
     </row>
     <row r="17" spans="1:121">
       <c r="A17" t="s">
+        <v>427</v>
+      </c>
+      <c r="B17" t="s">
         <v>428</v>
-      </c>
-      <c r="B17" t="s">
-        <v>429</v>
       </c>
       <c r="C17" s="52">
         <v>19</v>
@@ -26669,10 +26853,10 @@
     </row>
     <row r="18" spans="1:121">
       <c r="A18" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" t="s">
         <v>430</v>
-      </c>
-      <c r="B18" t="s">
-        <v>431</v>
       </c>
       <c r="C18" s="52">
         <v>33</v>
@@ -27025,10 +27209,10 @@
     </row>
     <row r="19" spans="1:121">
       <c r="A19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B19" t="s">
         <v>432</v>
-      </c>
-      <c r="B19" t="s">
-        <v>433</v>
       </c>
       <c r="C19" s="52">
         <v>55</v>
@@ -27389,10 +27573,10 @@
     </row>
     <row r="20" spans="1:121">
       <c r="A20" t="s">
+        <v>433</v>
+      </c>
+      <c r="B20" t="s">
         <v>434</v>
-      </c>
-      <c r="B20" t="s">
-        <v>435</v>
       </c>
       <c r="C20" s="52">
         <v>44</v>
@@ -27753,10 +27937,10 @@
     </row>
     <row r="21" spans="1:121">
       <c r="A21" t="s">
+        <v>435</v>
+      </c>
+      <c r="B21" t="s">
         <v>436</v>
-      </c>
-      <c r="B21" t="s">
-        <v>437</v>
       </c>
       <c r="C21" s="52">
         <v>12</v>
@@ -28117,10 +28301,10 @@
     </row>
     <row r="22" spans="1:121">
       <c r="A22" t="s">
+        <v>437</v>
+      </c>
+      <c r="B22" t="s">
         <v>438</v>
-      </c>
-      <c r="B22" t="s">
-        <v>439</v>
       </c>
       <c r="C22" s="52">
         <v>32</v>
@@ -28481,10 +28665,10 @@
     </row>
     <row r="23" spans="1:121">
       <c r="A23" t="s">
+        <v>439</v>
+      </c>
+      <c r="B23" t="s">
         <v>440</v>
-      </c>
-      <c r="B23" t="s">
-        <v>441</v>
       </c>
       <c r="C23" s="52">
         <v>42</v>
@@ -28845,10 +29029,10 @@
     </row>
     <row r="24" spans="1:121">
       <c r="A24" t="s">
+        <v>441</v>
+      </c>
+      <c r="B24" t="s">
         <v>442</v>
-      </c>
-      <c r="B24" t="s">
-        <v>443</v>
       </c>
       <c r="C24" s="52">
         <v>20</v>
@@ -29201,10 +29385,10 @@
     </row>
     <row r="25" spans="1:121">
       <c r="A25" t="s">
+        <v>443</v>
+      </c>
+      <c r="B25" t="s">
         <v>444</v>
-      </c>
-      <c r="B25" t="s">
-        <v>445</v>
       </c>
       <c r="C25" s="52">
         <v>24</v>
@@ -29565,10 +29749,10 @@
     </row>
     <row r="26" spans="1:121">
       <c r="A26" t="s">
+        <v>445</v>
+      </c>
+      <c r="B26" t="s">
         <v>446</v>
-      </c>
-      <c r="B26" t="s">
-        <v>447</v>
       </c>
       <c r="C26" s="52">
         <v>50</v>
@@ -29929,10 +30113,10 @@
     </row>
     <row r="27" spans="1:121">
       <c r="A27" t="s">
+        <v>447</v>
+      </c>
+      <c r="B27" t="s">
         <v>448</v>
-      </c>
-      <c r="B27" t="s">
-        <v>449</v>
       </c>
       <c r="C27" s="52">
         <v>25</v>
@@ -30293,10 +30477,10 @@
     </row>
     <row r="28" spans="1:121">
       <c r="A28" t="s">
+        <v>449</v>
+      </c>
+      <c r="B28" t="s">
         <v>450</v>
-      </c>
-      <c r="B28" t="s">
-        <v>451</v>
       </c>
       <c r="C28" s="52">
         <v>41</v>
@@ -30649,10 +30833,10 @@
     </row>
     <row r="29" spans="1:121">
       <c r="A29" t="s">
+        <v>451</v>
+      </c>
+      <c r="B29" t="s">
         <v>452</v>
-      </c>
-      <c r="B29" t="s">
-        <v>453</v>
       </c>
       <c r="C29" s="52">
         <v>35</v>
@@ -31013,10 +31197,10 @@
     </row>
     <row r="30" spans="1:121">
       <c r="A30" t="s">
+        <v>453</v>
+      </c>
+      <c r="B30" t="s">
         <v>454</v>
-      </c>
-      <c r="B30" t="s">
-        <v>455</v>
       </c>
       <c r="C30" s="52">
         <v>13</v>
@@ -31369,10 +31553,10 @@
     </row>
     <row r="31" spans="1:121">
       <c r="A31" t="s">
+        <v>455</v>
+      </c>
+      <c r="B31" t="s">
         <v>456</v>
-      </c>
-      <c r="B31" t="s">
-        <v>457</v>
       </c>
       <c r="C31" s="52">
         <v>40</v>
@@ -31725,10 +31909,10 @@
     </row>
     <row r="32" spans="1:121">
       <c r="A32" t="s">
+        <v>457</v>
+      </c>
+      <c r="B32" t="s">
         <v>458</v>
-      </c>
-      <c r="B32" t="s">
-        <v>459</v>
       </c>
       <c r="C32" s="52">
         <v>47</v>
@@ -32089,10 +32273,10 @@
     </row>
     <row r="33" spans="1:121">
       <c r="A33" t="s">
+        <v>459</v>
+      </c>
+      <c r="B33" t="s">
         <v>460</v>
-      </c>
-      <c r="B33" t="s">
-        <v>461</v>
       </c>
       <c r="C33" s="52">
         <v>4</v>
@@ -32453,10 +32637,10 @@
     </row>
     <row r="34" spans="1:121">
       <c r="A34" t="s">
+        <v>461</v>
+      </c>
+      <c r="B34" t="s">
         <v>462</v>
-      </c>
-      <c r="B34" t="s">
-        <v>463</v>
       </c>
       <c r="C34" s="52">
         <v>46</v>
@@ -32809,10 +32993,10 @@
     </row>
     <row r="35" spans="1:121">
       <c r="A35" t="s">
+        <v>463</v>
+      </c>
+      <c r="B35" t="s">
         <v>464</v>
-      </c>
-      <c r="B35" t="s">
-        <v>465</v>
       </c>
       <c r="C35" s="52">
         <v>15</v>
@@ -33173,10 +33357,10 @@
     </row>
     <row r="36" spans="1:121">
       <c r="A36" t="s">
+        <v>465</v>
+      </c>
+      <c r="B36" t="s">
         <v>466</v>
-      </c>
-      <c r="B36" t="s">
-        <v>467</v>
       </c>
       <c r="C36" s="52">
         <v>56</v>
@@ -33537,10 +33721,10 @@
     </row>
     <row r="37" spans="1:121">
       <c r="A37" t="s">
+        <v>467</v>
+      </c>
+      <c r="B37" t="s">
         <v>468</v>
-      </c>
-      <c r="B37" t="s">
-        <v>469</v>
       </c>
       <c r="C37" s="52">
         <v>36</v>
@@ -33901,10 +34085,10 @@
     </row>
     <row r="38" spans="1:121">
       <c r="A38" t="s">
+        <v>469</v>
+      </c>
+      <c r="B38" t="s">
         <v>470</v>
-      </c>
-      <c r="B38" t="s">
-        <v>471</v>
       </c>
       <c r="C38" s="52">
         <v>6</v>
@@ -34265,10 +34449,10 @@
     </row>
     <row r="39" spans="1:121">
       <c r="A39" t="s">
+        <v>471</v>
+      </c>
+      <c r="B39" t="s">
         <v>472</v>
-      </c>
-      <c r="B39" t="s">
-        <v>473</v>
       </c>
       <c r="C39" s="52">
         <v>31</v>
@@ -34629,10 +34813,10 @@
     </row>
     <row r="40" spans="1:121">
       <c r="A40" t="s">
+        <v>473</v>
+      </c>
+      <c r="B40" t="s">
         <v>474</v>
-      </c>
-      <c r="B40" t="s">
-        <v>475</v>
       </c>
       <c r="C40" s="52">
         <v>45</v>
@@ -34985,10 +35169,10 @@
     </row>
     <row r="41" spans="1:121">
       <c r="A41" t="s">
+        <v>475</v>
+      </c>
+      <c r="B41" t="s">
         <v>476</v>
-      </c>
-      <c r="B41" t="s">
-        <v>477</v>
       </c>
       <c r="C41" s="52">
         <v>1</v>
@@ -35341,10 +35525,10 @@
     </row>
     <row r="42" spans="1:121">
       <c r="A42" t="s">
+        <v>477</v>
+      </c>
+      <c r="B42" t="s">
         <v>478</v>
-      </c>
-      <c r="B42" t="s">
-        <v>479</v>
       </c>
       <c r="C42" s="52">
         <v>16</v>
@@ -35697,10 +35881,10 @@
     </row>
     <row r="43" spans="1:121">
       <c r="A43" t="s">
+        <v>479</v>
+      </c>
+      <c r="B43" t="s">
         <v>480</v>
-      </c>
-      <c r="B43" t="s">
-        <v>481</v>
       </c>
       <c r="C43" s="52">
         <v>5</v>
@@ -36077,178 +36261,178 @@
   <sheetData>
     <row r="1" spans="1:58">
       <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
         <v>184</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>186</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>187</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>188</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>189</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>190</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>191</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>192</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>193</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>194</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>195</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>196</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>198</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>200</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>201</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>202</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>203</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>204</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>205</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>206</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>207</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>208</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>209</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>210</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>211</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>212</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>213</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>214</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>215</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>216</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>217</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>218</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>219</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>220</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>221</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>222</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>223</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>224</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>225</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>226</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>227</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>228</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>229</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>230</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>231</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>232</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>233</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>234</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>235</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>236</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>237</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>238</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>239</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>240</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:58">
@@ -36256,22 +36440,22 @@
         <v>2701</v>
       </c>
       <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
         <v>242</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>243</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>244</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>245</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>246</v>
-      </c>
-      <c r="G2" t="s">
-        <v>247</v>
       </c>
       <c r="H2" s="53">
         <v>0.71193380414350826</v>
@@ -36289,7 +36473,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N2" s="52">
         <v>672415</v>
@@ -36432,13 +36616,13 @@
         <v>2702</v>
       </c>
       <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
         <v>249</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>250</v>
-      </c>
-      <c r="D3" t="s">
-        <v>251</v>
       </c>
       <c r="H3" s="53">
         <v>0.33557622456798969</v>
@@ -36456,7 +36640,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N3" s="52">
         <v>700264</v>
@@ -36599,22 +36783,22 @@
         <v>2703</v>
       </c>
       <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
         <v>253</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>254</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>255</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>256</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>257</v>
-      </c>
-      <c r="G4" t="s">
-        <v>258</v>
       </c>
       <c r="H4" s="53">
         <v>0.56027133378164762</v>
@@ -36632,7 +36816,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N4" s="52">
         <v>709906</v>
@@ -36775,13 +36959,13 @@
         <v>2704</v>
       </c>
       <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
         <v>260</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>261</v>
-      </c>
-      <c r="D5" t="s">
-        <v>262</v>
       </c>
       <c r="H5" s="53">
         <v>0.86151996154834043</v>
@@ -36799,7 +36983,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N5" s="52">
         <v>702162</v>
@@ -36942,13 +37126,13 @@
         <v>2705</v>
       </c>
       <c r="B6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" t="s">
         <v>264</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>265</v>
-      </c>
-      <c r="D6" t="s">
-        <v>266</v>
       </c>
       <c r="H6" s="53">
         <v>1.0550210552793136</v>
@@ -36966,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N6" s="52">
         <v>708082</v>
@@ -37109,13 +37293,13 @@
         <v>2706</v>
       </c>
       <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
         <v>268</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>269</v>
-      </c>
-      <c r="D7" t="s">
-        <v>270</v>
       </c>
       <c r="H7" s="53">
         <v>0.52668897978531926</v>
@@ -37133,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N7" s="52">
         <v>696720</v>
@@ -37276,13 +37460,13 @@
         <v>2707</v>
       </c>
       <c r="B8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" t="s">
         <v>272</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>273</v>
-      </c>
-      <c r="D8" t="s">
-        <v>274</v>
       </c>
       <c r="H8" s="53">
         <v>0.57155595936099168</v>
@@ -37300,7 +37484,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N8" s="52">
         <v>668049</v>
@@ -37443,22 +37627,22 @@
         <v>2708</v>
       </c>
       <c r="B9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" t="s">
         <v>276</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>277</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>278</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>279</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>280</v>
-      </c>
-      <c r="G9" t="s">
-        <v>281</v>
       </c>
       <c r="H9" s="53">
         <v>0.49850306063550609</v>
@@ -37476,7 +37660,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N9" s="52">
         <v>662354</v>
@@ -37643,33 +37827,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" t="s">
         <v>491</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1" t="s">
         <v>492</v>
       </c>
-      <c r="C1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F1" t="s">
         <v>493</v>
       </c>
-      <c r="E1" t="s">
-        <v>499</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>494</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>495</v>
-      </c>
-      <c r="H1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2" s="99">
         <v>0.16</v>
@@ -37692,7 +37876,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B3" s="99">
         <v>0.16</v>
@@ -37715,7 +37899,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B4" s="99">
         <v>0.16</v>
@@ -37732,7 +37916,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B5" s="99">
         <v>0.14000000000000001</v>
@@ -37749,7 +37933,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B6" s="99">
         <v>0.13</v>
@@ -37766,7 +37950,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B7" s="99"/>
       <c r="C7" s="99"/>
@@ -37775,22 +37959,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="69" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="69" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B11" s="99">
         <v>0.14000000000000001</v>
@@ -37820,27 +38004,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5" s="51" customFormat="1">
       <c r="A1" s="51" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>511</v>
       </c>
-      <c r="C1" s="51" t="s">
-        <v>512</v>
-      </c>
       <c r="D1" s="51" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>526</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -37848,7 +38032,7 @@
         <v>1986</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C2" s="102">
         <v>0.20499999999999999</v>
@@ -37862,7 +38046,7 @@
         <v>1988</v>
       </c>
       <c r="B3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C3" s="102">
         <v>0.35699999999999998</v>
@@ -37876,7 +38060,7 @@
         <v>1990</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C4" s="102">
         <v>0.2</v>
@@ -37890,7 +38074,7 @@
         <v>1992</v>
       </c>
       <c r="B5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C5" s="102">
         <v>0.42699999999999999</v>
@@ -37904,7 +38088,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C6" s="102">
         <v>0.21</v>
@@ -37918,7 +38102,7 @@
         <v>1996</v>
       </c>
       <c r="B7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C7" s="102">
         <v>0.33100000000000002</v>
@@ -37932,7 +38116,7 @@
         <v>1998</v>
       </c>
       <c r="B8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C8" s="102">
         <v>0.17699999999999999</v>
@@ -37946,7 +38130,7 @@
         <v>2000</v>
       </c>
       <c r="B9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C9" s="102">
         <v>0.34499999999999997</v>
@@ -37960,7 +38144,7 @@
         <v>2002</v>
       </c>
       <c r="B10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C10" s="102">
         <v>0.182</v>
@@ -37974,7 +38158,7 @@
         <v>2004</v>
       </c>
       <c r="B11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C11" s="102">
         <v>0.45</v>
@@ -37988,7 +38172,7 @@
         <v>2006</v>
       </c>
       <c r="B12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C12" s="102">
         <v>0.20300000000000001</v>
@@ -37997,7 +38181,7 @@
         <v>0.255</v>
       </c>
       <c r="E12">
-        <f>B24/C24</f>
+        <f t="shared" ref="E12:E17" si="0">B24/C24</f>
         <v>0.33116585120511388</v>
       </c>
     </row>
@@ -38006,7 +38190,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C13" s="102">
         <v>0.48399999999999999</v>
@@ -38015,7 +38199,7 @@
         <v>0.51100000000000001</v>
       </c>
       <c r="E13">
-        <f>B25/C25</f>
+        <f t="shared" si="0"/>
         <v>0.63778866665504153</v>
       </c>
     </row>
@@ -38024,7 +38208,7 @@
         <v>2010</v>
       </c>
       <c r="B14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C14" s="102">
         <v>0.20300000000000001</v>
@@ -38033,7 +38217,7 @@
         <v>0.24</v>
       </c>
       <c r="E14">
-        <f>B26/C26</f>
+        <f t="shared" si="0"/>
         <v>0.27441018406940154</v>
       </c>
     </row>
@@ -38042,7 +38226,7 @@
         <v>2012</v>
       </c>
       <c r="B15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C15" s="102">
         <v>0.40899999999999997</v>
@@ -38051,7 +38235,7 @@
         <v>0.45</v>
       </c>
       <c r="E15">
-        <f>B27/C27</f>
+        <f t="shared" si="0"/>
         <v>0.57833733013589128</v>
       </c>
     </row>
@@ -38060,7 +38244,7 @@
         <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C16" s="102">
         <v>0.16300000000000001</v>
@@ -38069,7 +38253,7 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="E16">
-        <f>B28/C28</f>
+        <f t="shared" si="0"/>
         <v>0.2179739962851836</v>
       </c>
     </row>
@@ -38078,7 +38262,7 @@
         <v>2016</v>
       </c>
       <c r="B17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C17" s="102">
         <v>0.434</v>
@@ -38087,25 +38271,25 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="E17">
-        <f>B29/C29</f>
+        <f t="shared" si="0"/>
         <v>0.53676559036310212</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
+        <v>527</v>
+      </c>
+      <c r="B22" t="s">
         <v>528</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>529</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>530</v>
       </c>
-      <c r="D22" t="s">
-        <v>531</v>
-      </c>
       <c r="E22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -38119,7 +38303,7 @@
         <v>862906</v>
       </c>
       <c r="D24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F24" s="100"/>
       <c r="G24" s="100"/>
@@ -38149,7 +38333,7 @@
         <v>860205</v>
       </c>
       <c r="D25" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F25" s="101"/>
       <c r="G25" s="101"/>
@@ -38179,7 +38363,7 @@
         <v>875485</v>
       </c>
       <c r="D26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -38193,7 +38377,7 @@
         <v>875700</v>
       </c>
       <c r="D27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -38207,7 +38391,7 @@
         <v>874875</v>
       </c>
       <c r="D28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -38221,7 +38405,7 @@
         <v>872895</v>
       </c>
       <c r="D29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
